--- a/requirement/20171214_SystemRequirements_Queries.xlsx
+++ b/requirement/20171214_SystemRequirements_Queries.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="HighLevel" sheetId="1" r:id="rId1"/>
-    <sheet name="EntityRelation" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -785,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1282,16 +1281,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>